--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/56.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/56.xlsx
@@ -479,13 +479,13 @@
         <v>-0.08693361355390568</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.558460615156031</v>
+        <v>-1.563708394906447</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01828313324362836</v>
+        <v>0.02547954866621511</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1174901821406477</v>
+        <v>-0.1009393710801709</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.08064640878564303</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.553773186212797</v>
+        <v>-1.556845671537576</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03039993243940106</v>
+        <v>0.03729571020981937</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.07479019141800261</v>
+        <v>-0.05749329529402935</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.08091610851695588</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.63820750692717</v>
+        <v>-1.649288601541127</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03098681329132576</v>
+        <v>-0.02477415981955195</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08150180895122874</v>
+        <v>-0.06389483106035924</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.08846946240748312</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.786666629419569</v>
+        <v>-1.802506770846778</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09681701500148443</v>
+        <v>-0.09402155704205441</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08632932559625794</v>
+        <v>-0.06971397975180789</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1001870663714749</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.864719089606627</v>
+        <v>-1.894901693267128</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1338080383711719</v>
+        <v>-0.1340614554497013</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.08610896291927585</v>
+        <v>-0.07125337045243996</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.113883226341841</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.684672551387966</v>
+        <v>-1.717083179114668</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1601004537733786</v>
+        <v>-0.1717592134048528</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.09149840439060941</v>
+        <v>-0.08252964343743809</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1277615488566419</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.331144708705589</v>
+        <v>-1.349737809575953</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1680287880873702</v>
+        <v>-0.1757824062788973</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04169171733529174</v>
+        <v>-0.03139763228198524</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1397609636709106</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.790594275058946</v>
+        <v>-0.7968147986263263</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1209168217677193</v>
+        <v>-0.1317051488251142</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05759875457515649</v>
+        <v>-0.05102407670548352</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.147028503353445</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.231713601735196</v>
+        <v>-0.226683036623519</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1455580911116815</v>
+        <v>-0.163955226601444</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02952477780795788</v>
+        <v>0.03973386582871414</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1439733895402912</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3682190642911973</v>
+        <v>0.3820247860041256</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1602720218576004</v>
+        <v>-0.1762656301491367</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1016589260989258</v>
+        <v>0.1092866227607489</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1237974941866654</v>
       </c>
       <c r="E12" t="n">
-        <v>1.044098152920349</v>
+        <v>1.069288754937645</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2699244899238915</v>
+        <v>-0.2977862023900349</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1575082725609168</v>
+        <v>0.1588288746036881</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.08130568814449921</v>
       </c>
       <c r="E13" t="n">
-        <v>1.758868105998598</v>
+        <v>1.801870308392532</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4379337169124056</v>
+        <v>-0.4694392836443602</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2671135200535689</v>
+        <v>0.2675684115796248</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.01678149277208896</v>
       </c>
       <c r="E14" t="n">
-        <v>2.433410852393765</v>
+        <v>2.482691817062568</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6827204485997247</v>
+        <v>-0.7138954713162061</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3771201424221526</v>
+        <v>0.3769485743379309</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.06404049433424588</v>
       </c>
       <c r="E15" t="n">
-        <v>3.152809995707759</v>
+        <v>3.212863547242744</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9864061887965548</v>
+        <v>-1.021457233599239</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5253455230750385</v>
+        <v>0.5252778402528225</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1493540418758254</v>
       </c>
       <c r="E16" t="n">
-        <v>3.835630508661847</v>
+        <v>3.89489547661706</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.223506198105002</v>
+        <v>-1.25960239160423</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6867485918114535</v>
+        <v>0.6877512419917221</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2301120396306309</v>
       </c>
       <c r="E17" t="n">
-        <v>4.509652254727863</v>
+        <v>4.575104691848909</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.532505826855343</v>
+        <v>-1.580634609527354</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8578554884306874</v>
+        <v>0.8571424577687382</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3045512834251091</v>
       </c>
       <c r="E18" t="n">
-        <v>5.200777292565933</v>
+        <v>5.275817080154821</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.738992738273613</v>
+        <v>-1.787195499844326</v>
       </c>
       <c r="G18" t="n">
-        <v>1.014764732575789</v>
+        <v>1.014695475734452</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3740591965248301</v>
       </c>
       <c r="E19" t="n">
-        <v>5.677843600002715</v>
+        <v>5.748203828743978</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.983108937815258</v>
+        <v>-2.042564362084149</v>
       </c>
       <c r="G19" t="n">
-        <v>1.18068838422858</v>
+        <v>1.179485833619906</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.439728827870763</v>
       </c>
       <c r="E20" t="n">
-        <v>6.126476826032323</v>
+        <v>6.20579794563115</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.131892308246645</v>
+        <v>-2.197828756247492</v>
       </c>
       <c r="G20" t="n">
-        <v>1.307999772816743</v>
+        <v>1.30703962115275</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5001203068928274</v>
       </c>
       <c r="E21" t="n">
-        <v>6.410138681977527</v>
+        <v>6.48319992753094</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.323429186050801</v>
+        <v>-2.395316213339725</v>
       </c>
       <c r="G21" t="n">
-        <v>1.420831759508062</v>
+        <v>1.419707909855453</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5548291713478171</v>
       </c>
       <c r="E22" t="n">
-        <v>6.74300594967371</v>
+        <v>6.816737727372799</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.414387029013404</v>
+        <v>-2.488623279840869</v>
       </c>
       <c r="G22" t="n">
-        <v>1.512324768971907</v>
+        <v>1.512823733033359</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6029127365799738</v>
       </c>
       <c r="E23" t="n">
-        <v>6.86611313318888</v>
+        <v>6.942708051669614</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.499891682730261</v>
+        <v>-2.581339302161965</v>
       </c>
       <c r="G23" t="n">
-        <v>1.610859939984451</v>
+        <v>1.611933421025178</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6441155918524734</v>
       </c>
       <c r="E24" t="n">
-        <v>6.989067636849283</v>
+        <v>7.06031718639408</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.544573363526623</v>
+        <v>-2.629520027464979</v>
       </c>
       <c r="G24" t="n">
-        <v>1.615937725669767</v>
+        <v>1.617481838427763</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6783076611780194</v>
       </c>
       <c r="E25" t="n">
-        <v>7.071393558950673</v>
+        <v>7.139825614268342</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.557028576833476</v>
+        <v>-2.651235982272004</v>
       </c>
       <c r="G25" t="n">
-        <v>1.660526539337973</v>
+        <v>1.663610042796601</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7047849248977774</v>
       </c>
       <c r="E26" t="n">
-        <v>7.043568048924319</v>
+        <v>7.099031760701592</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.593433278080479</v>
+        <v>-2.703576840112615</v>
       </c>
       <c r="G26" t="n">
-        <v>1.668305341835441</v>
+        <v>1.663279498781128</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7229352603301143</v>
       </c>
       <c r="E27" t="n">
-        <v>6.964986718312504</v>
+        <v>7.010565590008008</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.48003228347681</v>
+        <v>-2.586764159063528</v>
       </c>
       <c r="G27" t="n">
-        <v>1.635011689381689</v>
+        <v>1.633473872700178</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7318401931867319</v>
       </c>
       <c r="E28" t="n">
-        <v>6.817893057407834</v>
+        <v>6.844541201131454</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.389600949910282</v>
+        <v>-2.490169753627547</v>
       </c>
       <c r="G28" t="n">
-        <v>1.563300952234351</v>
+        <v>1.555199475817016</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7314065595982709</v>
       </c>
       <c r="E29" t="n">
-        <v>6.641754021657801</v>
+        <v>6.65643174996393</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.308828584681616</v>
+        <v>-2.416929856903865</v>
       </c>
       <c r="G29" t="n">
-        <v>1.505125205511078</v>
+        <v>1.494810658209194</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7221310739466893</v>
       </c>
       <c r="E30" t="n">
-        <v>6.433802485447161</v>
+        <v>6.431929402692813</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.257162981044042</v>
+        <v>-2.355539963134896</v>
       </c>
       <c r="G30" t="n">
-        <v>1.439063622990088</v>
+        <v>1.430397073708206</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7060475763629912</v>
       </c>
       <c r="E31" t="n">
-        <v>6.133078262227058</v>
+        <v>6.116543191357795</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.042697366699899</v>
+        <v>-2.126288013165254</v>
       </c>
       <c r="G31" t="n">
-        <v>1.359545751001098</v>
+        <v>1.349015563079597</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6846867645334737</v>
       </c>
       <c r="E32" t="n">
-        <v>5.853299511454104</v>
+        <v>5.82346555302897</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.90660609945312</v>
+        <v>-1.980193854402609</v>
       </c>
       <c r="G32" t="n">
-        <v>1.264111397657516</v>
+        <v>1.244965029066015</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6590424229402638</v>
       </c>
       <c r="E33" t="n">
-        <v>5.474019141928125</v>
+        <v>5.429694763472298</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.830751756968958</v>
+        <v>-1.896094799761074</v>
       </c>
       <c r="G33" t="n">
-        <v>1.18209240928478</v>
+        <v>1.159566621639846</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.6294780999129607</v>
       </c>
       <c r="E34" t="n">
-        <v>5.14411417821823</v>
+        <v>5.089648394563862</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.75106546493399</v>
+        <v>-1.813373011850677</v>
       </c>
       <c r="G34" t="n">
-        <v>1.059004113999066</v>
+        <v>1.035104207661237</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5966285158340067</v>
       </c>
       <c r="E35" t="n">
-        <v>4.722905087339044</v>
+        <v>4.655844002676028</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.696713797665916</v>
+        <v>-1.751824142150457</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9860546238032646</v>
+        <v>0.961699825939379</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5615913390862264</v>
       </c>
       <c r="E36" t="n">
-        <v>4.246591161042243</v>
+        <v>4.179275085281576</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.604352716656674</v>
+        <v>-1.649094997189206</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9134435477185425</v>
+        <v>0.8829453532242204</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5259498122004788</v>
       </c>
       <c r="E37" t="n">
-        <v>3.853391740426603</v>
+        <v>3.778586481686788</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.56981086703973</v>
+        <v>-1.608641131752657</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8376277687028523</v>
+        <v>0.8078095504689321</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4915683832631564</v>
       </c>
       <c r="E38" t="n">
-        <v>3.489379356377242</v>
+        <v>3.406316793327084</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.478616921208932</v>
+        <v>-1.51344209426771</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7380899475100394</v>
+        <v>0.7041950197519504</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4592973690369735</v>
       </c>
       <c r="E39" t="n">
-        <v>3.045494946036599</v>
+        <v>2.955308372443434</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.450645814413858</v>
+        <v>-1.479724243660767</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6795143999299555</v>
+        <v>0.6479757787964537</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4299469833144864</v>
       </c>
       <c r="E40" t="n">
-        <v>2.617640346427283</v>
+        <v>2.52329521431564</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.442705674956457</v>
+        <v>-1.465807553599787</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6059447462003614</v>
+        <v>0.57309968919618</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4030651468395184</v>
       </c>
       <c r="E41" t="n">
-        <v>2.270117386692668</v>
+        <v>2.177267572746261</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.404031238136539</v>
+        <v>-1.422089959515221</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5520125550281146</v>
+        <v>0.5181302194229961</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3780593276566962</v>
       </c>
       <c r="E42" t="n">
-        <v>1.891413108165086</v>
+        <v>1.801819939780651</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.371660747897429</v>
+        <v>-1.388201327833617</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4894421469181697</v>
+        <v>0.4552182491637289</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3540642070610179</v>
       </c>
       <c r="E43" t="n">
-        <v>1.65460507940364</v>
+        <v>1.56649463703147</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.354599954641651</v>
+        <v>-1.372255727125281</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4122616933243118</v>
+        <v>0.379514225505651</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3295501292733757</v>
       </c>
       <c r="E44" t="n">
-        <v>1.451222920702135</v>
+        <v>1.374412361601783</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.352667846170254</v>
+        <v>-1.370799759438078</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3511189205573866</v>
+        <v>0.3211307082583659</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3041487907415003</v>
       </c>
       <c r="E45" t="n">
-        <v>1.226767794004658</v>
+        <v>1.151674489765644</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.280790262996059</v>
+        <v>-1.300038155820884</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2866297831385761</v>
+        <v>0.2532228013080903</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2773873436839953</v>
       </c>
       <c r="E46" t="n">
-        <v>1.001772778748573</v>
+        <v>0.9290719835739371</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.222394153595803</v>
+        <v>-1.24239364055105</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2560277033822482</v>
+        <v>0.2278873895316345</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2505017231561818</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8752436776636962</v>
+        <v>0.8043215240961298</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.164321505124975</v>
+        <v>-1.181309893501173</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1769222244030395</v>
+        <v>0.1471197463603323</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2246360428444861</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7250303108606075</v>
+        <v>0.6659731134294058</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.090126965804224</v>
+        <v>-1.110172886323549</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1276837582505114</v>
+        <v>0.1041868008077347</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2008159191957283</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5557335362308695</v>
+        <v>0.4979575903644065</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.037416213470107</v>
+        <v>-1.060822664813409</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07891277577700956</v>
+        <v>0.05536544972235127</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1794732316836294</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4799901620947591</v>
+        <v>0.4259651037943556</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9868374700357911</v>
+        <v>-1.013484826749851</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07389952487566687</v>
+        <v>0.05464297494567425</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1603861671857054</v>
       </c>
       <c r="E51" t="n">
-        <v>0.361930857901601</v>
+        <v>0.3097426799157554</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9697026978813119</v>
+        <v>-0.9972039599686775</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07316918000338335</v>
+        <v>0.05640115430416712</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1435492275212434</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2447939289135251</v>
+        <v>0.2036868455416364</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9802635791756789</v>
+        <v>-1.010284058866686</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01036896510172851</v>
+        <v>-0.007752717041806312</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1282122014947335</v>
       </c>
       <c r="E53" t="n">
-        <v>0.170951969875946</v>
+        <v>0.1282755894401204</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9300712574356426</v>
+        <v>-0.9515093978677579</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02364109433253591</v>
+        <v>0.008481716175288982</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.114264674154698</v>
       </c>
       <c r="E54" t="n">
-        <v>0.09501026933055169</v>
+        <v>0.06627655027120763</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9092021249158774</v>
+        <v>-0.9361902567696989</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01224339359487717</v>
+        <v>-0.02640012157185556</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1017149492775965</v>
       </c>
       <c r="E55" t="n">
-        <v>0.06371562116085142</v>
+        <v>0.04646751962963848</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9285759392704068</v>
+        <v>-0.9582068492288923</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.02722962964878102</v>
+        <v>-0.04231817694556941</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.09117420398997608</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.00706172264755531</v>
+        <v>-0.02297348194478396</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9456288624305785</v>
+        <v>-0.9774523810250358</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.05605778985540312</v>
+        <v>-0.06814153464962849</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.08295263734434029</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.09769846570941282</v>
+        <v>-0.1084348501358048</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9826033585994923</v>
+        <v>-1.016231490116521</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.09122609908262438</v>
+        <v>-0.1022583991038209</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.07647679427179095</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1300461326712632</v>
+        <v>-0.1387488843929348</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9871688010608249</v>
+        <v>-1.021353348337233</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1149764736039305</v>
+        <v>-0.1239751409204065</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.07102978681912298</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1969875918810602</v>
+        <v>-0.2023298127787547</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9893141891231578</v>
+        <v>-1.023548318001887</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1217274416151891</v>
+        <v>-0.1281856420698858</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.06519437712635831</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2650292904566464</v>
+        <v>-0.2644657916112207</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.037561023229266</v>
+        <v>-1.076613224638297</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1274710373888153</v>
+        <v>-0.1325078985769775</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.05812413400933705</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3317031664158221</v>
+        <v>-0.324541379413904</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.016961834988804</v>
+        <v>-1.05955321839208</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1638167129187695</v>
+        <v>-0.1685639545886124</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.04892181628090563</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4625104514723945</v>
+        <v>-0.4571288800966675</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.063331651292762</v>
+        <v>-1.110682868518851</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1880707735588918</v>
+        <v>-0.1944062005221271</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.03700425993441733</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5244150494940293</v>
+        <v>-0.5207570290561265</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.106093028761138</v>
+        <v>-1.16239175768226</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.22287233633085</v>
+        <v>-0.2282916841654883</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.02207347249646492</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6629633605891584</v>
+        <v>-0.6561132293732578</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.15065351008516</v>
+        <v>-1.210153006889447</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2762913972695528</v>
+        <v>-0.2844086138781004</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.004539068903900667</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8257106416551643</v>
+        <v>-0.8153535958370058</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.223343287125947</v>
+        <v>-1.284563186829816</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3433603520281751</v>
+        <v>-0.3510148070150603</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.01472902030647846</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.940590427223295</v>
+        <v>-0.9300098706899118</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.253338582511014</v>
+        <v>-1.317384633547178</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3727032164874625</v>
+        <v>-0.3806646052030014</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.03496042098701779</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.039843350955153</v>
+        <v>-1.033382789471774</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.322419920716219</v>
+        <v>-1.389772198916676</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4474124600608783</v>
+        <v>-0.459707123417358</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.05528935472673027</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.16127813915394</v>
+        <v>-1.16344398946485</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.396860794029453</v>
+        <v>-1.4716314243486</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4515395381969287</v>
+        <v>-0.4588366908432787</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.07440445891249059</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.343518073018134</v>
+        <v>-1.35257734007078</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.458177495909282</v>
+        <v>-1.535049441755365</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4885525978343144</v>
+        <v>-0.4974930264433023</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.09061725580566388</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.407376028769302</v>
+        <v>-1.418411476828741</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.558140302264846</v>
+        <v>-1.638465646063063</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.533527046187239</v>
+        <v>-0.5448048931913584</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1031756235705595</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.473408491936548</v>
+        <v>-1.486795524563211</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.610139597956136</v>
+        <v>-1.697620432679785</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5991904018705397</v>
+        <v>-0.614074326681559</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1110905073349663</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.55054487299501</v>
+        <v>-1.561926605261135</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.652673529661484</v>
+        <v>-1.739090327459134</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6005409102766157</v>
+        <v>-0.6175104104233584</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1138594364556373</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.630930816529397</v>
+        <v>-1.651702359863641</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.655576020921162</v>
+        <v>-1.741685884990159</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6355014489798253</v>
+        <v>-0.6564878459241273</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1114764986829431</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.689696820423158</v>
+        <v>-1.710555721818634</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.684180670412559</v>
+        <v>-1.769101363035414</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6390996566911187</v>
+        <v>-0.6597271772757642</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1044599293868701</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.701161975702712</v>
+        <v>-1.725747367367868</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.668096556021548</v>
+        <v>-1.752387640995882</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6593761710117142</v>
+        <v>-0.6801689636040963</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.09302107167037943</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.610524445631294</v>
+        <v>-1.632101099746084</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.744480555940028</v>
+        <v>-1.830689583213667</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6432582152095951</v>
+        <v>-0.6638479593353294</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.07721440454376594</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.535686132489931</v>
+        <v>-1.544318053351144</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.750184014226061</v>
+        <v>-1.833136395937729</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6175639270734827</v>
+        <v>-0.6373257371414128</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.05752387888326559</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.36431637467744</v>
+        <v>-1.374401115187614</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.687628559297769</v>
+        <v>-1.770238591850553</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5756981664851269</v>
+        <v>-0.5950113811034864</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.03409800914911963</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.235925208972064</v>
+        <v>-1.24451148327876</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.651183720563173</v>
+        <v>-1.728736429679218</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5941724289118332</v>
+        <v>-0.6155318683878835</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.007627541991752335</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.045694767038588</v>
+        <v>-1.047252258959115</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.607142665549179</v>
+        <v>-1.680118914070043</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5812465838877119</v>
+        <v>-0.6015813369157955</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.02097927574166846</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8991543738550545</v>
+        <v>-0.9005607599399366</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.560683130155307</v>
+        <v>-1.628319518807159</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5438730738715484</v>
+        <v>-0.5625346445736893</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.05000099821429967</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6667913750921617</v>
+        <v>-0.6587040648469188</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.546698757272112</v>
+        <v>-1.607811623675732</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4876837392793564</v>
+        <v>-0.5032822687714462</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.07750898686300582</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4502787488807669</v>
+        <v>-0.4400067000951586</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.42545206435832</v>
+        <v>-1.476044973964727</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.401303143921496</v>
+        <v>-0.415379596923288</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1013686193326903</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.2484454249946223</v>
+        <v>-0.2318174869972018</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.374261027485818</v>
+        <v>-1.41384760838653</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3769121436178205</v>
+        <v>-0.3906769408335951</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1201077254770842</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.05102565072460482</v>
+        <v>-0.03258601671856726</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.2415586234072</v>
+        <v>-1.277953880539475</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3572463487162897</v>
+        <v>-0.3745007463239879</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1335499404821704</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2229890420261467</v>
+        <v>0.2441501550929132</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.123402517038081</v>
+        <v>-1.15376377186885</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2967048512537014</v>
+        <v>-0.3153679959749636</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1423339867195893</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4641933061933854</v>
+        <v>0.4889069804169275</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9804201940782483</v>
+        <v>-1.003231666193698</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2259999123248745</v>
+        <v>-0.2413465987575562</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1475073851150186</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6320813337095593</v>
+        <v>0.6544040728878457</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.827106796615758</v>
+        <v>-0.8469913801751496</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2047364880152235</v>
+        <v>-0.2210275859206856</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.149883988407302</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8224353361440581</v>
+        <v>0.849210975416504</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7170655458265056</v>
+        <v>-0.7349526991209667</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1378013248819117</v>
+        <v>-0.149502583029661</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1491695210756948</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9652193326946074</v>
+        <v>0.9936760243886025</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5123438968527743</v>
+        <v>-0.5185801606113676</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1210742236798493</v>
+        <v>-0.1338111864094145</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1444496654354566</v>
       </c>
       <c r="E91" t="n">
-        <v>1.091751581817727</v>
+        <v>1.1227707766412</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3157709448700166</v>
+        <v>-0.3216876827469859</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1448104320290637</v>
+        <v>-0.1564188230486563</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.134707659795945</v>
       </c>
       <c r="E92" t="n">
-        <v>1.157641596254495</v>
+        <v>1.191730128364504</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1785086073969901</v>
+        <v>-0.1810711105264677</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1059903984404248</v>
+        <v>-0.1193601168567529</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1187860688121394</v>
       </c>
       <c r="E93" t="n">
-        <v>1.182114445552478</v>
+        <v>1.211331388482062</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.07725038330459558</v>
+        <v>-0.07803896688436722</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.101227416579369</v>
+        <v>-0.1123746199964204</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.0970213362756563</v>
       </c>
       <c r="E94" t="n">
-        <v>1.178226618322866</v>
+        <v>1.209514970416081</v>
       </c>
       <c r="F94" t="n">
-        <v>0.08144065048581846</v>
+        <v>0.08507978269426565</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.05925619670988612</v>
+        <v>-0.07090236418838991</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.07188669817108823</v>
       </c>
       <c r="E95" t="n">
-        <v>1.196590699411081</v>
+        <v>1.229242152063342</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1668422059502299</v>
+        <v>0.176191879530756</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.09362647824260793</v>
+        <v>-0.1051782045738337</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.04653794696365743</v>
       </c>
       <c r="E96" t="n">
-        <v>1.114752723237294</v>
+        <v>1.146093017961512</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2563913017992686</v>
+        <v>0.2715616980903646</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1133363456795352</v>
+        <v>-0.1242191138842081</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.02434956617580543</v>
       </c>
       <c r="E97" t="n">
-        <v>1.069106168719574</v>
+        <v>1.101672624339285</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3074257237692008</v>
+        <v>0.3261345150449808</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.08150967904683525</v>
+        <v>-0.09177700577507963</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.006258205923996601</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9433200046599509</v>
+        <v>0.9713721734397718</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2851596492792813</v>
+        <v>0.3065411250230298</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1367829345104302</v>
+        <v>-0.1471431283668313</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.007187541723999017</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9182600462297226</v>
+        <v>0.9444816307714707</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2546299744025332</v>
+        <v>0.274180865908209</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1215716137221804</v>
+        <v>-0.1308063839068515</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.01914904079962902</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8565002579672475</v>
+        <v>0.8778486793094488</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2504525276546011</v>
+        <v>0.270401645997966</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1207798821041661</v>
+        <v>-0.1304837099869848</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.03060012583115503</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7987101459286928</v>
+        <v>0.8189504578094984</v>
       </c>
       <c r="F101" t="n">
-        <v>0.216740186114583</v>
+        <v>0.2343928105599702</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1053592167727833</v>
+        <v>-0.1145373222690876</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.04869091688054653</v>
       </c>
       <c r="E102" t="n">
-        <v>0.791565673137109</v>
+        <v>0.8093048686341677</v>
       </c>
       <c r="F102" t="n">
-        <v>0.18043228704354</v>
+        <v>0.1944331871275096</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08709744692745268</v>
+        <v>-0.09817854154140952</v>
       </c>
     </row>
   </sheetData>
